--- a/biology/Zoologie/Colombophilie_en_Nord-Pas-de-Calais/Colombophilie_en_Nord-Pas-de-Calais.xlsx
+++ b/biology/Zoologie/Colombophilie_en_Nord-Pas-de-Calais/Colombophilie_en_Nord-Pas-de-Calais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L' ancienne région Nord-Pas-de-Calais regroupe 10 000 colombophiles sur les 20 000 de France[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L' ancienne région Nord-Pas-de-Calais regroupe 10 000 colombophiles sur les 20 000 de France.
 La première association colombophile a vu le jour en 1849 à Roubaix avec le développement des mines et de l'industrie textile de nombreuses associations se créent et des pigeonniers sont construits dans les jardins des mineurs et des ouvriers, toutes corporations et nationalités confondues.
 Pour les gueules noires, jouer à pigeon était une véritable évasion après le travail au fond de mine dans l'obscurité et la poussière.
 </t>
@@ -513,10 +525,12 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La colombophilie est l'art d'élever et de faire concourir les pigeons voyageurs. C'est aussi un sport non reconnu et très peu connu. Il y a de moins en moins de colombophiles, ce qui pose le problème du renouvellement générationnel. Ce sport organise des concours locaux, régionaux, nationaux et internationaux.
-Cette pratique sera reconnue par l'Inventaire du patrimoine culturel immatériel en France en 2012[2].
+Cette pratique sera reconnue par l'Inventaire du patrimoine culturel immatériel en France en 2012.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Organisation régionale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au sein de la Fédération colombophile internationale (FCI) située à Bruxelles, la  Fédération colombophile française (FCF) est située à Festubert, dans le Pas-de-Calais, depuis 2023, auparavant, depuis 1950, à Lille[3], et comprend 21 régions. La première d'entre elles est le Nord-Pas-de-Calais qui est constituée de 13 groupements divisés eux-mêmes en associations (850 en France).
-Le déménagement à Festubert, sur un terrain de 7 000 m2, a pour but de créer une maison de la colombophilie en y installant un musée, un colombier collectif pouvant accueillir plus de 10 000 pigeons, comme il en existe dans de nombreux pays d'Europe, et en accueillant le personnel administratif à l'horizon 2024[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au sein de la Fédération colombophile internationale (FCI) située à Bruxelles, la  Fédération colombophile française (FCF) est située à Festubert, dans le Pas-de-Calais, depuis 2023, auparavant, depuis 1950, à Lille, et comprend 21 régions. La première d'entre elles est le Nord-Pas-de-Calais qui est constituée de 13 groupements divisés eux-mêmes en associations (850 en France).
+Le déménagement à Festubert, sur un terrain de 7 000 m2, a pour but de créer une maison de la colombophilie en y installant un musée, un colombier collectif pouvant accueillir plus de 10 000 pigeons, comme il en existe dans de nombreux pays d'Europe, et en accueillant le personnel administratif à l'horizon 2024.
 </t>
         </is>
       </c>
@@ -579,10 +595,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Arras
-Avesnes-sur-Helpe
-Béthune
-La vieille hirondelle	à Allouagne
+          <t>Béthune</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La vieille hirondelle	à Allouagne
 La Concorde	à Annequin
 La plume d' acier à	Annezin
 Association ouvriere	à Auchel
@@ -652,12 +671,43 @@
 L'HIRONDELLE	ST VENANT
 LA REVANCHE	VERQUIN
 LA RENAISSANCE	VIOLAINES
-LE MARTINET	WINGLES
-Boulogne-sur-Mer
-Calais
-Cambrai
-Douai
-le groupement de Douai est divisé 29 associations avec 750 colombophiles
+LE MARTINET	WINGLES</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Colombophilie_en_Nord-Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colombophilie_en_Nord-Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les 13 groupements de l'ancienne région Nord-Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Douai</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>le groupement de Douai est divisé 29 associations avec 750 colombophiles
 L'amicale des coulonneux d'Anhiers
 La fédération anichoise
 L'hirondelle d'Arleux
@@ -686,16 +736,45 @@
 Les mineurs de De Sessevalle de Somain
 Le Local Unique à Somain
 Le ramier à Vred
-La rapide de Waziers
-Dunkerque
-Hazebrouck
-L'Union à Hazebrouck
+La rapide de Waziers</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Colombophilie_en_Nord-Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colombophilie_en_Nord-Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les 13 groupements de l'ancienne région Nord-Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hazebrouck</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'Union à Hazebrouck
 Les Ailes de France à Hazebrouck
-L'Aigle à Merville
-Lille
-Saint-Omer
-Saint-Pol
-Valenciennes</t>
+L'Aigle à Merville</t>
         </is>
       </c>
     </row>
